--- a/企画書・仕様書/ManipulateMagnetism.xlsx
+++ b/企画書・仕様書/ManipulateMagnetism.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\magnet\manipulateMagnatism\企画書・仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A68CD4E-2E1A-4B34-8AC2-857F198CA3A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE663C64-7F28-44E9-8B2C-49DA6F1E961D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7224" tabRatio="751" xr2:uid="{14BB46C6-126C-428D-A569-FF9EF9719E7C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="170">
   <si>
     <t>ManipulateMagnetism 仕様書</t>
     <rPh sb="20" eb="23">
@@ -903,10 +903,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①･･･title.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>②･･･ui_Tutorial.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1093,10 +1089,6 @@
   </si>
   <si>
     <t>❼･･･goal.x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①･･･bg.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1606,6 +1598,18 @@
       </rPr>
       <t>gimmick</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①･･･game000.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①･･･result000.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select_enter.wav</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -27395,7 +27399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DA01D0-DE6C-4300-ACA4-E5AFF7F22120}">
   <dimension ref="C1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -27480,7 +27486,7 @@
         <v>7.</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -27582,7 +27588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AE8019-3604-4D6B-86F3-AFD869EEF694}">
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -27604,12 +27612,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -27624,7 +27632,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -27634,42 +27642,42 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C11" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C16" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="19.8" x14ac:dyDescent="0.45">
@@ -27679,22 +27687,22 @@
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C21" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C23" s="17" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -27706,9 +27714,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4529438A-A08B-4E39-B627-C2E0EEECC270}">
-  <dimension ref="A2:C31"/>
+  <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -27740,72 +27750,72 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C16" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C20" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="19.8" x14ac:dyDescent="0.45">
@@ -27815,7 +27825,7 @@
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C24" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.45">
@@ -27839,14 +27849,7 @@
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C30" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
-        <v>164</v>
-      </c>
+      <c r="C30" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -27891,72 +27894,72 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C7" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C11" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C19" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="19.8" x14ac:dyDescent="0.45">
@@ -27966,7 +27969,7 @@
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C23" s="17" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.45">
@@ -27976,22 +27979,22 @@
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C25" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C27" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="3:3" ht="19.8" x14ac:dyDescent="0.45">
@@ -28011,12 +28014,12 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C33" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -28035,7 +28038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A20315-52AD-4FA1-AF83-9BCA99AC1D49}">
   <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -28057,7 +28062,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C5" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
@@ -28176,7 +28181,7 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C21" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -28295,7 +28300,7 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C37" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
@@ -28440,22 +28445,22 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.8" x14ac:dyDescent="0.45">
@@ -28465,7 +28470,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" s="17" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -28475,22 +28480,22 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="19.8" x14ac:dyDescent="0.45">
@@ -28500,12 +28505,12 @@
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.45">
@@ -28572,7 +28577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64934F0-F65D-4CE2-86B4-5C92C7E4A300}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -28598,7 +28603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28DB7EC-A105-46B9-A68F-92286DC524D6}">
   <dimension ref="A2:K8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -28627,7 +28634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67581940-9C43-46AA-9867-17C36496E81B}">
   <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -28689,7 +28698,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -28965,7 +28974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE04690-4FA0-44CE-A228-E705B5DBEB1F}">
   <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -29287,7 +29298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A5EE5E-39C9-476A-B569-5450399E359D}">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -29309,7 +29322,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -29333,7 +29346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26CA4AB-F3C9-4957-84AB-E4945333C4E0}">
   <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -29351,12 +29366,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="7" customFormat="1" ht="19.8" x14ac:dyDescent="0.45">
@@ -29368,22 +29383,22 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -29397,7 +29412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9CF370-5AD3-4FB7-B2A2-03C64B524B1B}">
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -29429,7 +29446,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -29444,7 +29461,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C11" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
